--- a/SimulationStudyData/Model3/Dataset17_zsim_Run3.xlsx
+++ b/SimulationStudyData/Model3/Dataset17_zsim_Run3.xlsx
@@ -368,12 +368,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -388,12 +388,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -413,12 +413,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -428,12 +428,12 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -453,12 +453,12 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -478,7 +478,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -503,7 +503,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -518,7 +518,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -538,7 +538,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -563,12 +563,12 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -578,17 +578,17 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -603,7 +603,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -623,22 +623,22 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -653,12 +653,12 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -668,7 +668,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -688,12 +688,12 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -718,17 +718,17 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -743,12 +743,12 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -758,17 +758,17 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -788,12 +788,12 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -803,37 +803,37 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -848,12 +848,12 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -883,12 +883,12 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -903,7 +903,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -913,12 +913,12 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -948,12 +948,12 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -968,12 +968,12 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -983,17 +983,17 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -1003,7 +1003,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -1018,7 +1018,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1038,12 +1038,12 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -1058,7 +1058,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1083,7 +1083,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1093,12 +1093,12 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1108,12 +1108,12 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -1123,12 +1123,12 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -1138,12 +1138,12 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -1158,12 +1158,12 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -1213,12 +1213,12 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -1243,7 +1243,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -1258,7 +1258,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -1268,12 +1268,12 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -1283,7 +1283,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -1298,17 +1298,17 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -1338,7 +1338,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
